--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cthrc1-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cthrc1-Fzd6.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.507882</v>
+        <v>6.670167666666667</v>
       </c>
       <c r="H2">
-        <v>16.523646</v>
+        <v>20.010503</v>
       </c>
       <c r="I2">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="J2">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.545366</v>
+        <v>22.618885</v>
       </c>
       <c r="N2">
-        <v>61.636098</v>
+        <v>67.856655</v>
       </c>
       <c r="O2">
-        <v>0.8965950288338865</v>
+        <v>0.9027998993061069</v>
       </c>
       <c r="P2">
-        <v>0.8965950288338865</v>
+        <v>0.902799899306107</v>
       </c>
       <c r="Q2">
-        <v>113.161451574812</v>
+        <v>150.8717553830517</v>
       </c>
       <c r="R2">
-        <v>1018.453064173308</v>
+        <v>1357.845798447465</v>
       </c>
       <c r="S2">
-        <v>0.0315499794136613</v>
+        <v>0.03819472103459751</v>
       </c>
       <c r="T2">
-        <v>0.0315499794136613</v>
+        <v>0.03819472103459752</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.507882</v>
+        <v>6.670167666666667</v>
       </c>
       <c r="H3">
-        <v>16.523646</v>
+        <v>20.010503</v>
       </c>
       <c r="I3">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="J3">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>6.464219</v>
       </c>
       <c r="O3">
-        <v>0.09403234157836461</v>
+        <v>0.08600330007856447</v>
       </c>
       <c r="P3">
-        <v>0.09403234157836463</v>
+        <v>0.08600330007856449</v>
       </c>
       <c r="Q3">
-        <v>11.86805182471933</v>
+        <v>14.37247485468411</v>
       </c>
       <c r="R3">
-        <v>106.812466422474</v>
+        <v>129.352273692157</v>
       </c>
       <c r="S3">
-        <v>0.003308872284150729</v>
+        <v>0.003638538348398471</v>
       </c>
       <c r="T3">
-        <v>0.003308872284150729</v>
+        <v>0.003638538348398472</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.507882</v>
+        <v>6.670167666666667</v>
       </c>
       <c r="H4">
-        <v>16.523646</v>
+        <v>20.010503</v>
       </c>
       <c r="I4">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="J4">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2147726666666666</v>
+        <v>0.2805263333333333</v>
       </c>
       <c r="N4">
-        <v>0.6443179999999999</v>
+        <v>0.841579</v>
       </c>
       <c r="O4">
-        <v>0.009372629587748919</v>
+        <v>0.0111968006153285</v>
       </c>
       <c r="P4">
-        <v>0.009372629587748919</v>
+        <v>0.01119680061532851</v>
       </c>
       <c r="Q4">
-        <v>1.182942504825333</v>
+        <v>1.871157678248556</v>
       </c>
       <c r="R4">
-        <v>10.646482543428</v>
+        <v>16.840419104237</v>
       </c>
       <c r="S4">
-        <v>0.0003298102945428411</v>
+        <v>0.0004737026181673049</v>
       </c>
       <c r="T4">
-        <v>0.0003298102945428411</v>
+        <v>0.0004737026181673049</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>449.9625550000001</v>
       </c>
       <c r="I5">
-        <v>0.9582376829612175</v>
+        <v>0.9513278459982415</v>
       </c>
       <c r="J5">
-        <v>0.9582376829612176</v>
+        <v>0.9513278459982416</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.545366</v>
+        <v>22.618885</v>
       </c>
       <c r="N5">
-        <v>61.636098</v>
+        <v>67.856655</v>
       </c>
       <c r="O5">
-        <v>0.8965950288338865</v>
+        <v>0.9027998993061069</v>
       </c>
       <c r="P5">
-        <v>0.8965950288338865</v>
+        <v>0.902799899306107</v>
       </c>
       <c r="Q5">
-        <v>3081.548459590044</v>
+        <v>3392.550428617059</v>
       </c>
       <c r="R5">
-        <v>27733.9361363104</v>
+        <v>30532.95385755353</v>
       </c>
       <c r="S5">
-        <v>0.8591511429843294</v>
+        <v>0.8588586835743081</v>
       </c>
       <c r="T5">
-        <v>0.8591511429843295</v>
+        <v>0.8588586835743083</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>449.9625550000001</v>
       </c>
       <c r="I6">
-        <v>0.9582376829612175</v>
+        <v>0.9513278459982415</v>
       </c>
       <c r="J6">
-        <v>0.9582376829612176</v>
+        <v>0.9513278459982416</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>6.464219</v>
       </c>
       <c r="O6">
-        <v>0.09403234157836461</v>
+        <v>0.08600330007856447</v>
       </c>
       <c r="P6">
-        <v>0.09403234157836463</v>
+        <v>0.08600330007856449</v>
       </c>
       <c r="Q6">
         <v>323.1840552577273</v>
@@ -818,10 +818,10 @@
         <v>2908.656497319545</v>
       </c>
       <c r="S6">
-        <v>0.09010533311746986</v>
+        <v>0.08181733421248112</v>
       </c>
       <c r="T6">
-        <v>0.09010533311746988</v>
+        <v>0.08181733421248116</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>449.9625550000001</v>
       </c>
       <c r="I7">
-        <v>0.9582376829612175</v>
+        <v>0.9513278459982415</v>
       </c>
       <c r="J7">
-        <v>0.9582376829612176</v>
+        <v>0.9513278459982416</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2147726666666666</v>
+        <v>0.2805263333333333</v>
       </c>
       <c r="N7">
-        <v>0.6443179999999999</v>
+        <v>0.841579</v>
       </c>
       <c r="O7">
-        <v>0.009372629587748919</v>
+        <v>0.0111968006153285</v>
       </c>
       <c r="P7">
-        <v>0.009372629587748919</v>
+        <v>0.01119680061532851</v>
       </c>
       <c r="Q7">
-        <v>32.21321927916556</v>
+        <v>42.07544856381612</v>
       </c>
       <c r="R7">
-        <v>289.91897351249</v>
+        <v>378.679037074345</v>
       </c>
       <c r="S7">
-        <v>0.008981206859418275</v>
+        <v>0.01065182821145225</v>
       </c>
       <c r="T7">
-        <v>0.008981206859418276</v>
+        <v>0.01065182821145225</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.028937</v>
+        <v>1.003544</v>
       </c>
       <c r="H8">
-        <v>3.086811</v>
+        <v>3.010632</v>
       </c>
       <c r="I8">
-        <v>0.006573655046427582</v>
+        <v>0.0063651920005952</v>
       </c>
       <c r="J8">
-        <v>0.006573655046427582</v>
+        <v>0.006365192000595201</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.545366</v>
+        <v>22.618885</v>
       </c>
       <c r="N8">
-        <v>61.636098</v>
+        <v>67.856655</v>
       </c>
       <c r="O8">
-        <v>0.8965950288338865</v>
+        <v>0.9027998993061069</v>
       </c>
       <c r="P8">
-        <v>0.8965950288338865</v>
+        <v>0.902799899306107</v>
       </c>
       <c r="Q8">
-        <v>21.139887255942</v>
+        <v>22.69904632844</v>
       </c>
       <c r="R8">
-        <v>190.258985303478</v>
+        <v>204.29141695596</v>
       </c>
       <c r="S8">
-        <v>0.005893906435895761</v>
+        <v>0.005746494697201384</v>
       </c>
       <c r="T8">
-        <v>0.005893906435895761</v>
+        <v>0.005746494697201385</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.028937</v>
+        <v>1.003544</v>
       </c>
       <c r="H9">
-        <v>3.086811</v>
+        <v>3.010632</v>
       </c>
       <c r="I9">
-        <v>0.006573655046427582</v>
+        <v>0.0063651920005952</v>
       </c>
       <c r="J9">
-        <v>0.006573655046427582</v>
+        <v>0.006365192000595201</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>6.464219</v>
       </c>
       <c r="O9">
-        <v>0.09403234157836461</v>
+        <v>0.08600330007856447</v>
       </c>
       <c r="P9">
-        <v>0.09403234157836463</v>
+        <v>0.08600330007856449</v>
       </c>
       <c r="Q9">
-        <v>2.217091368401</v>
+        <v>2.162376064045333</v>
       </c>
       <c r="R9">
-        <v>19.953822315609</v>
+        <v>19.461384576408</v>
       </c>
       <c r="S9">
-        <v>0.0006181361767440187</v>
+        <v>0.000547427517684867</v>
       </c>
       <c r="T9">
-        <v>0.0006181361767440188</v>
+        <v>0.0005474275176848673</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.028937</v>
+        <v>1.003544</v>
       </c>
       <c r="H10">
-        <v>3.086811</v>
+        <v>3.010632</v>
       </c>
       <c r="I10">
-        <v>0.006573655046427582</v>
+        <v>0.0063651920005952</v>
       </c>
       <c r="J10">
-        <v>0.006573655046427582</v>
+        <v>0.006365192000595201</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2147726666666666</v>
+        <v>0.2805263333333333</v>
       </c>
       <c r="N10">
-        <v>0.6443179999999999</v>
+        <v>0.841579</v>
       </c>
       <c r="O10">
-        <v>0.009372629587748919</v>
+        <v>0.0111968006153285</v>
       </c>
       <c r="P10">
-        <v>0.009372629587748919</v>
+        <v>0.01119680061532851</v>
       </c>
       <c r="Q10">
-        <v>0.220987543322</v>
+        <v>0.2815205186586667</v>
       </c>
       <c r="R10">
-        <v>1.988887889898</v>
+        <v>2.533684667928</v>
       </c>
       <c r="S10">
-        <v>6.161243378780215E-05</v>
+        <v>7.126978570894841E-05</v>
       </c>
       <c r="T10">
-        <v>6.161243378780215E-05</v>
+        <v>7.126978570894844E-05</v>
       </c>
     </row>
   </sheetData>
